--- a/SCOPE_v1.73/input_data_default.xlsx
+++ b/SCOPE_v1.73/input_data_default.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects Python\SCOPE\SCOPE_v1.71\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoe_pierrat/Documents/GitHub/SCOPE_matlab/SCOPE_v1.73/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2691104D-D5C4-8940-BEFF-54480CB4E524}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8892" windowHeight="5196" activeTab="1"/>
+    <workbookView xWindow="-15720" yWindow="-2320" windowWidth="15720" windowHeight="19560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="5" r:id="rId1"/>
@@ -17,7 +18,18 @@
     <sheet name="filenames" sheetId="3" r:id="rId3"/>
     <sheet name="inputdata" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1274,7 +1286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1710,6 +1722,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1719,7 +1732,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1813,6 +1825,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1848,6 +1877,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2023,83 +2069,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J96"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -2107,7 +2153,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2115,7 +2161,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -2123,7 +2169,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -2131,12 +2177,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2144,7 +2190,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2152,7 +2198,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2160,7 +2206,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2168,7 +2214,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2176,7 +2222,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2184,7 +2230,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2192,7 +2238,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2200,7 +2246,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -2208,12 +2254,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2221,7 +2267,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -2229,28 +2275,28 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -2258,7 +2304,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -2266,7 +2312,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -2274,7 +2320,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -2282,7 +2328,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -2290,7 +2336,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -2298,43 +2344,43 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="51" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>129</v>
       </c>
@@ -2345,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>130</v>
       </c>
@@ -2356,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>131</v>
       </c>
@@ -2367,7 +2413,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>132</v>
       </c>
@@ -2378,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>133</v>
       </c>
@@ -2389,7 +2435,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>134</v>
       </c>
@@ -2400,26 +2446,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="56"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="18"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>236</v>
       </c>
@@ -2451,7 +2497,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
         <v>245</v>
       </c>
@@ -2483,7 +2529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
         <v>247</v>
       </c>
@@ -2515,7 +2561,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
         <v>248</v>
       </c>
@@ -2547,7 +2593,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
         <v>249</v>
       </c>
@@ -2579,7 +2625,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
         <v>250</v>
       </c>
@@ -2611,7 +2657,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
         <v>251</v>
       </c>
@@ -2643,7 +2689,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="24" t="s">
         <v>253</v>
       </c>
@@ -2675,7 +2721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
         <v>254</v>
       </c>
@@ -2707,7 +2753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
         <v>255</v>
       </c>
@@ -2739,7 +2785,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
         <v>256</v>
       </c>
@@ -2771,7 +2817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
         <v>257</v>
       </c>
@@ -2803,7 +2849,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
         <v>258</v>
       </c>
@@ -2835,7 +2881,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="31" t="s">
         <v>259</v>
       </c>
@@ -2867,12 +2913,12 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="36" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="41" t="s">
         <v>75</v>
       </c>
@@ -2892,7 +2938,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="s">
         <v>296</v>
       </c>
@@ -2913,7 +2959,7 @@
       </c>
       <c r="G87" s="43"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
         <v>297</v>
       </c>
@@ -2934,7 +2980,7 @@
       </c>
       <c r="G88" s="43"/>
     </row>
-    <row r="89" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="s">
         <v>299</v>
       </c>
@@ -2955,7 +3001,7 @@
       </c>
       <c r="G89" s="43"/>
     </row>
-    <row r="90" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
         <v>313</v>
       </c>
@@ -2976,7 +3022,7 @@
       </c>
       <c r="G90" s="43"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="s">
         <v>309</v>
       </c>
@@ -2997,7 +3043,7 @@
       </c>
       <c r="G91" s="42"/>
     </row>
-    <row r="92" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
         <v>317</v>
       </c>
@@ -3017,7 +3063,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
         <v>303</v>
       </c>
@@ -3037,7 +3083,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
         <v>305</v>
       </c>
@@ -3057,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="44" t="s">
         <v>307</v>
       </c>
@@ -3077,7 +3123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="46" t="s">
         <v>308</v>
       </c>
@@ -3111,33 +3157,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3148,7 +3194,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3159,7 +3205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3170,7 +3216,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3181,7 +3227,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3192,7 +3238,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3203,7 +3249,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3214,7 +3260,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3225,7 +3271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3236,7 +3282,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3247,7 +3293,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3258,7 +3304,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3269,7 +3315,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3280,7 +3326,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3291,7 +3337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>1</v>
       </c>
@@ -3302,7 +3348,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3313,7 +3359,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>0</v>
       </c>
@@ -3324,7 +3370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3335,13 +3381,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="E23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>118</v>
       </c>
@@ -3354,32 +3400,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -3387,7 +3433,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -3395,7 +3441,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -3403,7 +3449,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -3411,12 +3457,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3424,7 +3470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3432,7 +3478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -3440,7 +3486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -3448,7 +3494,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -3456,7 +3502,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -3464,7 +3510,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3472,7 +3518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -3480,7 +3526,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -3488,72 +3534,72 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="51" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="49"/>
     </row>
   </sheetData>
@@ -3564,39 +3610,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DV89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="8" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="8" width="9.1640625" customWidth="1"/>
     <col min="9" max="9" width="40.33203125" customWidth="1"/>
-    <col min="10" max="26" width="9.109375" customWidth="1"/>
-    <col min="27" max="27" width="9.109375" style="4" customWidth="1"/>
-    <col min="28" max="28" width="24.5546875" customWidth="1"/>
+    <col min="10" max="26" width="9.1640625" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" style="4" customWidth="1"/>
+    <col min="28" max="28" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -3612,13 +3658,13 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AA8" s="7"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3633,7 +3679,7 @@
       </c>
       <c r="AA9"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
         <v>319</v>
       </c>
@@ -3648,7 +3694,7 @@
       </c>
       <c r="AA10"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3663,7 +3709,7 @@
       </c>
       <c r="AA11"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3678,7 +3724,7 @@
       </c>
       <c r="AA12"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3693,7 +3739,7 @@
       </c>
       <c r="AA13"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>329</v>
       </c>
@@ -3708,7 +3754,7 @@
       </c>
       <c r="AA14"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3723,7 +3769,7 @@
       </c>
       <c r="AA15"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3736,7 +3782,7 @@
       </c>
       <c r="AA16"/>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3748,15 +3794,15 @@
       </c>
       <c r="AA17"/>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.2">
       <c r="AA18"/>
     </row>
-    <row r="19" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3771,7 +3817,7 @@
       </c>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3789,7 +3835,7 @@
       <c r="CX21" s="4"/>
       <c r="CY21" s="9"/>
     </row>
-    <row r="22" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>328</v>
       </c>
@@ -3804,7 +3850,7 @@
       <c r="CX22" s="4"/>
       <c r="CY22" s="9"/>
     </row>
-    <row r="23" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3822,7 +3868,7 @@
       <c r="CX23" s="4"/>
       <c r="CY23" s="9"/>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3834,7 +3880,7 @@
       </c>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -3852,7 +3898,7 @@
       <c r="CX25" s="4"/>
       <c r="CY25" s="9"/>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -3878,12 +3924,12 @@
       <c r="BY26" s="4"/>
       <c r="CX26" s="4"/>
     </row>
-    <row r="27" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -3900,7 +3946,7 @@
       <c r="BY28" s="4"/>
       <c r="CX28" s="4"/>
     </row>
-    <row r="29" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>220</v>
       </c>
@@ -3917,7 +3963,7 @@
       <c r="BY29" s="4"/>
       <c r="CX29" s="4"/>
     </row>
-    <row r="30" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -3934,7 +3980,7 @@
       <c r="BY30" s="4"/>
       <c r="CX30" s="4"/>
     </row>
-    <row r="31" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>225</v>
       </c>
@@ -3951,7 +3997,7 @@
       <c r="BY31" s="4"/>
       <c r="CX31" s="4"/>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -3965,12 +4011,12 @@
       <c r="BY32" s="4"/>
       <c r="CX32" s="4"/>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.2">
       <c r="AZ33" s="4"/>
       <c r="BY33" s="4"/>
       <c r="CX33" s="4"/>
     </row>
-    <row r="34" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -3979,7 +4025,7 @@
       <c r="BY34" s="7"/>
       <c r="CX34" s="7"/>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3998,12 +4044,12 @@
       <c r="CX35" s="4"/>
       <c r="CY35" s="9"/>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:103" x14ac:dyDescent="0.2">
       <c r="AZ36" s="4"/>
       <c r="BY36" s="4"/>
       <c r="CX36" s="4"/>
     </row>
-    <row r="37" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>26</v>
       </c>
@@ -4012,7 +4058,7 @@
       <c r="BY37" s="7"/>
       <c r="CX37" s="7"/>
     </row>
-    <row r="38" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -4026,7 +4072,7 @@
       <c r="BY38" s="4"/>
       <c r="CX38" s="4"/>
     </row>
-    <row r="39" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -4043,7 +4089,7 @@
       <c r="BY39" s="4"/>
       <c r="CX39" s="4"/>
     </row>
-    <row r="40" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -4057,7 +4103,7 @@
       <c r="BY40" s="4"/>
       <c r="CX40" s="4"/>
     </row>
-    <row r="41" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -4074,7 +4120,7 @@
       <c r="BY41" s="4"/>
       <c r="CX41" s="4"/>
     </row>
-    <row r="42" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -4091,7 +4137,7 @@
       <c r="BY42" s="4"/>
       <c r="CX42" s="4"/>
     </row>
-    <row r="43" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -4108,7 +4154,7 @@
       <c r="BY43" s="4"/>
       <c r="CX43" s="4"/>
     </row>
-    <row r="44" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -4122,7 +4168,7 @@
       <c r="BY44" s="4"/>
       <c r="CX44" s="4"/>
     </row>
-    <row r="45" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -4136,7 +4182,7 @@
       <c r="BY45" s="4"/>
       <c r="CX45" s="4"/>
     </row>
-    <row r="46" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>337</v>
       </c>
@@ -4150,7 +4196,7 @@
       <c r="BY46" s="4"/>
       <c r="CX46" s="4"/>
     </row>
-    <row r="47" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>338</v>
       </c>
@@ -4164,12 +4210,12 @@
       <c r="BY47" s="4"/>
       <c r="CX47" s="4"/>
     </row>
-    <row r="48" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:103" x14ac:dyDescent="0.2">
       <c r="AZ48" s="4"/>
       <c r="BY48" s="4"/>
       <c r="CX48" s="4"/>
     </row>
-    <row r="49" spans="1:126" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:126" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -4178,7 +4224,7 @@
       <c r="BY49" s="7"/>
       <c r="CX49" s="7"/>
     </row>
-    <row r="50" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -4291,7 +4337,7 @@
       <c r="DU50" s="4"/>
       <c r="DV50" s="4"/>
     </row>
-    <row r="51" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -4306,7 +4352,7 @@
       </c>
       <c r="AB51" s="9"/>
     </row>
-    <row r="52" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -4322,7 +4368,7 @@
       <c r="J52" s="11"/>
       <c r="AB52" s="9"/>
     </row>
-    <row r="53" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -4338,7 +4384,7 @@
       <c r="J53" s="11"/>
       <c r="AB53" s="9"/>
     </row>
-    <row r="54" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -4353,13 +4399,13 @@
       </c>
       <c r="AB54" s="9"/>
     </row>
-    <row r="56" spans="1:126" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:126" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AA56" s="7"/>
     </row>
-    <row r="57" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4373,7 +4419,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4387,7 +4433,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -4401,7 +4447,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -4415,7 +4461,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -4429,7 +4475,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -4443,7 +4489,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4457,7 +4503,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:126" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -4474,7 +4520,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -4488,13 +4534,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AA67" s="7"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -4510,7 +4556,7 @@
       </c>
       <c r="AB68" s="9"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -4526,7 +4572,7 @@
       </c>
       <c r="AB69" s="9"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -4538,7 +4584,7 @@
       </c>
       <c r="AB70" s="9"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -4553,7 +4599,7 @@
       </c>
       <c r="AB71" s="9"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -4564,7 +4610,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -4575,7 +4621,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -4586,7 +4632,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -4597,7 +4643,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -4611,7 +4657,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -4625,13 +4671,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
       <c r="AA79" s="7"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -4643,7 +4689,7 @@
       </c>
       <c r="AB80" s="9"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -4655,7 +4701,7 @@
       </c>
       <c r="AB81" s="9"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -4670,7 +4716,7 @@
       </c>
       <c r="AB82" s="9"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -4685,7 +4731,7 @@
       </c>
       <c r="AB83" s="9"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -4699,13 +4745,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>102</v>
       </c>
       <c r="AA86" s="7"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -4720,7 +4766,7 @@
       </c>
       <c r="AB87" s="9"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -4735,7 +4781,7 @@
       </c>
       <c r="AB88" s="9"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>105</v>
       </c>
